--- a/Index/GP Nr. 24-25.xlsx
+++ b/Index/GP Nr. 24-25.xlsx
@@ -1403,6 +1403,9 @@
       <c r="K20" t="n">
         <v>165.4</v>
       </c>
+      <c r="L20" t="n">
+        <v>162.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2604,6 +2607,9 @@
       <c r="K20" t="n">
         <v>198.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>188.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3805,6 +3811,9 @@
       <c r="K20" t="n">
         <v>179.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>170.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5006,6 +5015,9 @@
       <c r="K20" t="n">
         <v>193.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>183.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6206,6 +6218,9 @@
       <c r="K20" t="n">
         <v>200.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>194.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7407,6 +7422,9 @@
       <c r="K20" t="n">
         <v>212.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>204.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8609,6 +8627,9 @@
       <c r="K20" t="n">
         <v>215</v>
       </c>
+      <c r="L20" t="n">
+        <v>206.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9549,6 +9570,9 @@
       <c r="K20" t="n">
         <v>213.4</v>
       </c>
+      <c r="L20" t="n">
+        <v>197.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10751,6 +10775,9 @@
       <c r="K20" t="n">
         <v>216.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>213</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11953,6 +11980,9 @@
       <c r="K20" t="n">
         <v>171.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>169</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13154,6 +13184,9 @@
       <c r="K20" t="n">
         <v>204.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>197.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14094,6 +14127,9 @@
       <c r="K20" t="n">
         <v>195.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>187.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15035,6 +15071,9 @@
       <c r="K20" t="n">
         <v>170.6</v>
       </c>
+      <c r="L20" t="n">
+        <v>170</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16235,6 +16274,9 @@
       <c r="K20" t="n">
         <v>160.4</v>
       </c>
+      <c r="L20" t="n">
+        <v>159.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17171,6 +17213,9 @@
       <c r="K20" t="n">
         <v>149.6</v>
       </c>
+      <c r="L20" t="n">
+        <v>148.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -18111,6 +18156,9 @@
       <c r="K20" t="n">
         <v>167.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>167.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -19052,6 +19100,9 @@
       <c r="K20" t="n">
         <v>225.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>222.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -20122,6 +20173,9 @@
       <c r="K20" t="n">
         <v>145.6</v>
       </c>
+      <c r="L20" t="n">
+        <v>148.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -21062,6 +21116,9 @@
       <c r="K20" t="n">
         <v>181.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>178.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -22002,6 +22059,9 @@
       <c r="K20" t="n">
         <v>196.4</v>
       </c>
+      <c r="L20" t="n">
+        <v>192.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -22942,6 +23002,9 @@
       <c r="K20" t="n">
         <v>175.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>174</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -23882,6 +23945,9 @@
       <c r="K20" t="n">
         <v>181</v>
       </c>
+      <c r="L20" t="n">
+        <v>172.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -25083,6 +25149,9 @@
       <c r="K20" t="n">
         <v>183.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>181.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -26023,6 +26092,9 @@
       <c r="K20" t="n">
         <v>179.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>179.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -26963,6 +27035,9 @@
       <c r="K20" t="n">
         <v>146.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>147.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -27903,6 +27978,9 @@
       <c r="K20" t="n">
         <v>145.6</v>
       </c>
+      <c r="L20" t="n">
+        <v>148.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -28843,6 +28921,9 @@
       <c r="K20" t="n">
         <v>143.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>141.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -29783,6 +29864,9 @@
       <c r="K20" t="n">
         <v>141.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>141.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -30723,6 +30807,9 @@
       <c r="K20" t="n">
         <v>143.7</v>
       </c>
+      <c r="L20" t="n">
+        <v>141.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -31663,6 +31750,9 @@
       <c r="K20" t="n">
         <v>154.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>155.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -32603,6 +32693,9 @@
       <c r="K20" t="n">
         <v>151.7</v>
       </c>
+      <c r="L20" t="n">
+        <v>153.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -33543,6 +33636,9 @@
       <c r="K20" t="n">
         <v>153.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>156.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -34483,6 +34579,9 @@
       <c r="K20" t="n">
         <v>150.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>151.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -35684,6 +35783,9 @@
       <c r="K20" t="n">
         <v>178</v>
       </c>
+      <c r="L20" t="n">
+        <v>177.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -36624,6 +36726,9 @@
       <c r="K20" t="n">
         <v>132.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>131.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -37564,6 +37669,9 @@
       <c r="K20" t="n">
         <v>127.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>126.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -38504,6 +38612,9 @@
       <c r="K20" t="n">
         <v>133</v>
       </c>
+      <c r="L20" t="n">
+        <v>131.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -39444,6 +39555,9 @@
       <c r="K20" t="n">
         <v>132.6</v>
       </c>
+      <c r="L20" t="n">
+        <v>130.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -40384,6 +40498,9 @@
       <c r="K20" t="n">
         <v>133.4</v>
       </c>
+      <c r="L20" t="n">
+        <v>132.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -41324,6 +41441,9 @@
       <c r="K20" t="n">
         <v>129.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>127.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -42264,6 +42384,9 @@
       <c r="K20" t="n">
         <v>119.4</v>
       </c>
+      <c r="L20" t="n">
+        <v>119.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -43204,6 +43327,9 @@
       <c r="K20" t="n">
         <v>140.6</v>
       </c>
+      <c r="L20" t="n">
+        <v>140.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -44144,6 +44270,9 @@
       <c r="K20" t="n">
         <v>132.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>132.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -45084,6 +45213,9 @@
       <c r="K20" t="n">
         <v>147</v>
       </c>
+      <c r="L20" t="n">
+        <v>146.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -46285,6 +46417,9 @@
       <c r="K20" t="n">
         <v>195.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>190.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -47225,6 +47360,9 @@
       <c r="K20" t="n">
         <v>149.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>148.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -48425,6 +48563,9 @@
       <c r="K20" t="n">
         <v>139.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>140.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -49365,6 +49506,9 @@
       <c r="K20" t="n">
         <v>179.6</v>
       </c>
+      <c r="L20" t="n">
+        <v>177.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -50565,6 +50709,9 @@
       <c r="K20" t="n">
         <v>139.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>139.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -51505,6 +51652,9 @@
       <c r="K20" t="n">
         <v>141.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>141.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -52445,6 +52595,9 @@
       <c r="K20" t="n">
         <v>135.6</v>
       </c>
+      <c r="L20" t="n">
+        <v>135.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -53385,6 +53538,9 @@
       <c r="K20" t="n">
         <v>147.4</v>
       </c>
+      <c r="L20" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -54326,6 +54482,9 @@
       <c r="K20" t="n">
         <v>129.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>129.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -55266,6 +55425,9 @@
       <c r="K20" t="n">
         <v>135.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>135.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -56466,6 +56628,9 @@
       <c r="K20" t="n">
         <v>123.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>123.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -57666,6 +57831,9 @@
       <c r="K20" t="n">
         <v>208.6</v>
       </c>
+      <c r="L20" t="n">
+        <v>199.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -58866,6 +59034,9 @@
       <c r="K20" t="n">
         <v>126</v>
       </c>
+      <c r="L20" t="n">
+        <v>126.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -60066,6 +60237,9 @@
       <c r="K20" t="n">
         <v>121.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>121.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -61006,6 +61180,9 @@
       <c r="K20" t="n">
         <v>117.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>117.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -61946,6 +62123,9 @@
       <c r="K20" t="n">
         <v>120.7</v>
       </c>
+      <c r="L20" t="n">
+        <v>120.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -62886,6 +63066,9 @@
       <c r="K20" t="n">
         <v>119.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>119.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -63826,6 +64009,9 @@
       <c r="K20" t="n">
         <v>116</v>
       </c>
+      <c r="L20" t="n">
+        <v>116.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -64762,6 +64948,9 @@
       <c r="K20" t="n">
         <v>116.6</v>
       </c>
+      <c r="L20" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -65702,6 +65891,9 @@
       <c r="K20" t="n">
         <v>109.7</v>
       </c>
+      <c r="L20" t="n">
+        <v>110.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -66642,6 +66834,9 @@
       <c r="K20" t="n">
         <v>134.7</v>
       </c>
+      <c r="L20" t="n">
+        <v>134.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -67842,6 +68037,9 @@
       <c r="K20" t="n">
         <v>152.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -69043,6 +69241,9 @@
       <c r="K20" t="n">
         <v>224.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>211.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -69983,6 +70184,9 @@
       <c r="K20" t="n">
         <v>140.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>141.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -70923,6 +71127,9 @@
       <c r="K20" t="n">
         <v>138.7</v>
       </c>
+      <c r="L20" t="n">
+        <v>138.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -71863,6 +72070,9 @@
       <c r="K20" t="n">
         <v>128.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>128.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -72803,6 +73013,9 @@
       <c r="K20" t="n">
         <v>132.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>133.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -74004,6 +74217,9 @@
       <c r="K20" t="n">
         <v>203.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>184.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -75205,6 +75421,9 @@
       <c r="K20" t="n">
         <v>122.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>120.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">

--- a/Index/GP Nr. 24-25.xlsx
+++ b/Index/GP Nr. 24-25.xlsx
@@ -1,85 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GP = 24" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GP = 24 1  " sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="GP = 24 10 2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GP = 24 10 21" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="GP = 24 10 23" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="GP = 24 10 3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="GP = 24 10 31" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="GP = 24 10 32" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="GP = 24 10 35" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="GP = 24 10 4" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="GP = 24 10 5" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="GP = 24 10 51" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="GP = 24 10 6" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="GP = 24 10 61" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="GP = 24 10 62" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="GP = 24 10 62 100" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="GP = 24 10 62 30050" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="GP = 24 10 66" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="GP = 24 10 7" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="GP = 24 2" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="GP = 24 20 1" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="GP Nr. 24-2521" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="GP = 24 20 13 703" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="GP = 24 20 2" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="GP = 24 20 4" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="GP = 24 3" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="GP = 24 31 " sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="GP = 24 32" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="GP = 24 33" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="GP = 24 34 " sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="GP = 24 4" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="GP = 24 41" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="GP = 24 42" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="GP = 24 42 1" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="GP = 24 42 2" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="GP = 24 43" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="GP = 24 44 " sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="GP = 24 44 1" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="GP = 24 44 2" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="GP = 24 45" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="GP = 24 5" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="GP = 24 51" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="GP = 24 51 12" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="GP = 24 51 13" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="GP = 24 52" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="GP = 24 53" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="GP = 24 54" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="GP = 25" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="GP = 25 1" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="GP = 25 11" sheetId="50" state="visible" r:id="rId50"/>
-    <sheet name="GP = 25 11 23 691" sheetId="51" state="visible" r:id="rId51"/>
-    <sheet name="GP = 25 11 23 695 " sheetId="52" state="visible" r:id="rId52"/>
-    <sheet name="GP = 25 12" sheetId="53" state="visible" r:id="rId53"/>
-    <sheet name="GP = 25 2" sheetId="54" state="visible" r:id="rId54"/>
-    <sheet name="GP = 25 21" sheetId="55" state="visible" r:id="rId55"/>
-    <sheet name="GP = 25 29" sheetId="56" state="visible" r:id="rId56"/>
-    <sheet name="GP = 25 3" sheetId="57" state="visible" r:id="rId57"/>
-    <sheet name="GP = 25 5" sheetId="58" state="visible" r:id="rId58"/>
-    <sheet name="GP = 25 6" sheetId="59" state="visible" r:id="rId59"/>
-    <sheet name="GP = 25 61" sheetId="60" state="visible" r:id="rId60"/>
-    <sheet name="GP = 25 62" sheetId="61" state="visible" r:id="rId61"/>
-    <sheet name="GP = 25 7" sheetId="62" state="visible" r:id="rId62"/>
-    <sheet name="GP = 25 71" sheetId="63" state="visible" r:id="rId63"/>
-    <sheet name="GP = 25 72" sheetId="64" state="visible" r:id="rId64"/>
-    <sheet name="GP = 25 73" sheetId="65" state="visible" r:id="rId65"/>
-    <sheet name="GP Nr. 24-2565" sheetId="66" state="visible" r:id="rId66"/>
-    <sheet name="GP = 25 73 50" sheetId="67" state="visible" r:id="rId67"/>
-    <sheet name="GP = 25 9" sheetId="68" state="visible" r:id="rId68"/>
-    <sheet name="GP = 25 91" sheetId="69" state="visible" r:id="rId69"/>
-    <sheet name="GP = 25 92" sheetId="70" state="visible" r:id="rId70"/>
-    <sheet name="GP = 25 93" sheetId="71" state="visible" r:id="rId71"/>
-    <sheet name="GP = 25 94" sheetId="72" state="visible" r:id="rId72"/>
-    <sheet name="GP = 25 99" sheetId="73" state="visible" r:id="rId73"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 1  " sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 10 2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 10 21" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 10 23" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 10 3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 10 31" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 10 32" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 10 35" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 10 4" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 10 5" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 10 51" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 10 6" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 10 61" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 10 62" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 10 62 100" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 10 62 30050" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 10 66" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 10 7" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 2" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 20 1" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP Nr. 24-2521" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 20 13 703" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 20 2" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 20 4" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 3" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 31 " sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 32" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 33" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 34 " sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 4" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 41" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 42" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 42 1" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 42 2" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 43" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 44 " sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 44 1" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 44 2" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 45" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 5" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 51" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 51 12" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 51 13" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 52" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 53" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 24 54" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 25" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 25 1" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 25 11" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 25 11 23 691" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 25 11 23 695 " sheetId="52" state="visible" r:id="rId52"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 25 12" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 25 2" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 25 21" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 25 29" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 25 3" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 25 5" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 25 6" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 25 61" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 25 62" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 25 7" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 25 71" sheetId="63" state="visible" r:id="rId63"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 25 72" sheetId="64" state="visible" r:id="rId64"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 25 73" sheetId="65" state="visible" r:id="rId65"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP Nr. 24-2565" sheetId="66" state="visible" r:id="rId66"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 25 73 50" sheetId="67" state="visible" r:id="rId67"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 25 9" sheetId="68" state="visible" r:id="rId68"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 25 91" sheetId="69" state="visible" r:id="rId69"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 25 92" sheetId="70" state="visible" r:id="rId70"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 25 93" sheetId="71" state="visible" r:id="rId71"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 25 94" sheetId="72" state="visible" r:id="rId72"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 25 99" sheetId="73" state="visible" r:id="rId73"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1406,6 +1406,12 @@
       <c r="L20" t="n">
         <v>162.5</v>
       </c>
+      <c r="M20" t="n">
+        <v>160.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>164.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2610,6 +2616,12 @@
       <c r="L20" t="n">
         <v>188.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>187</v>
+      </c>
+      <c r="N20" t="n">
+        <v>203.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3814,6 +3826,12 @@
       <c r="L20" t="n">
         <v>170.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>169.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>183</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5018,6 +5036,12 @@
       <c r="L20" t="n">
         <v>183.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>181</v>
+      </c>
+      <c r="N20" t="n">
+        <v>195.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6221,6 +6245,12 @@
       <c r="L20" t="n">
         <v>194.6</v>
       </c>
+      <c r="M20" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>194.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7425,6 +7455,12 @@
       <c r="L20" t="n">
         <v>204.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>198.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>204.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8630,6 +8666,12 @@
       <c r="L20" t="n">
         <v>206.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>198.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>211.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9573,6 +9615,12 @@
       <c r="L20" t="n">
         <v>197.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>183.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>226.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10778,6 +10826,12 @@
       <c r="L20" t="n">
         <v>213</v>
       </c>
+      <c r="M20" t="n">
+        <v>210</v>
+      </c>
+      <c r="N20" t="n">
+        <v>199.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11983,6 +12037,12 @@
       <c r="L20" t="n">
         <v>169</v>
       </c>
+      <c r="M20" t="n">
+        <v>171.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>168.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13187,6 +13247,12 @@
       <c r="L20" t="n">
         <v>197.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>181</v>
+      </c>
+      <c r="N20" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14130,6 +14196,12 @@
       <c r="L20" t="n">
         <v>187.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>184</v>
+      </c>
+      <c r="N20" t="n">
+        <v>193.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15074,6 +15146,12 @@
       <c r="L20" t="n">
         <v>170</v>
       </c>
+      <c r="M20" t="n">
+        <v>168.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>164.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16277,6 +16355,12 @@
       <c r="L20" t="n">
         <v>159.7</v>
       </c>
+      <c r="M20" t="n">
+        <v>154.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>153.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17216,6 +17300,12 @@
       <c r="L20" t="n">
         <v>148.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>147.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>145.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -18159,6 +18249,12 @@
       <c r="L20" t="n">
         <v>167.5</v>
       </c>
+      <c r="M20" t="n">
+        <v>162.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>160.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -19103,6 +19199,12 @@
       <c r="L20" t="n">
         <v>222.7</v>
       </c>
+      <c r="M20" t="n">
+        <v>222.9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>218.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -20176,6 +20278,12 @@
       <c r="L20" t="n">
         <v>148.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>149.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>138.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -21119,6 +21227,12 @@
       <c r="L20" t="n">
         <v>178.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>177.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>179</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -22062,6 +22176,12 @@
       <c r="L20" t="n">
         <v>192.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>191.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>190.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -23005,6 +23125,12 @@
       <c r="L20" t="n">
         <v>174</v>
       </c>
+      <c r="M20" t="n">
+        <v>173.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>174</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -23948,6 +24074,12 @@
       <c r="L20" t="n">
         <v>172.6</v>
       </c>
+      <c r="M20" t="n">
+        <v>173.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>182.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -25152,6 +25284,12 @@
       <c r="L20" t="n">
         <v>181.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>175.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>180.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -26095,6 +26233,12 @@
       <c r="L20" t="n">
         <v>179.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>178.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>175.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -27038,6 +27182,12 @@
       <c r="L20" t="n">
         <v>147.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>146.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -27981,6 +28131,12 @@
       <c r="L20" t="n">
         <v>148.7</v>
       </c>
+      <c r="M20" t="n">
+        <v>149.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -28924,6 +29080,12 @@
       <c r="L20" t="n">
         <v>141.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>146.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -29867,6 +30029,12 @@
       <c r="L20" t="n">
         <v>141.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>150.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -30810,6 +30978,12 @@
       <c r="L20" t="n">
         <v>141.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>139.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>145.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -31753,6 +31927,12 @@
       <c r="L20" t="n">
         <v>155.6</v>
       </c>
+      <c r="M20" t="n">
+        <v>157.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>157.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -32696,6 +32876,12 @@
       <c r="L20" t="n">
         <v>153.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>152.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>155.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -33639,6 +33825,12 @@
       <c r="L20" t="n">
         <v>156.7</v>
       </c>
+      <c r="M20" t="n">
+        <v>153.9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>162.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -34582,6 +34774,12 @@
       <c r="L20" t="n">
         <v>151.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>152.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>152.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -35786,6 +35984,12 @@
       <c r="L20" t="n">
         <v>177.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>169.9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>173.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -36729,6 +36933,12 @@
       <c r="L20" t="n">
         <v>131.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>125.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -37672,6 +37882,12 @@
       <c r="L20" t="n">
         <v>126.5</v>
       </c>
+      <c r="M20" t="n">
+        <v>126.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>123.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -38615,6 +38831,12 @@
       <c r="L20" t="n">
         <v>131.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>133</v>
+      </c>
+      <c r="N20" t="n">
+        <v>127.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -39558,6 +39780,12 @@
       <c r="L20" t="n">
         <v>130.6</v>
       </c>
+      <c r="M20" t="n">
+        <v>133.9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>127.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -40501,6 +40729,12 @@
       <c r="L20" t="n">
         <v>132.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>127.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -41444,6 +41678,12 @@
       <c r="L20" t="n">
         <v>127.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>128</v>
+      </c>
+      <c r="N20" t="n">
+        <v>123.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -42387,6 +42627,12 @@
       <c r="L20" t="n">
         <v>119.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>119</v>
+      </c>
+      <c r="N20" t="n">
+        <v>116.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -43330,6 +43576,12 @@
       <c r="L20" t="n">
         <v>140.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>138.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>139.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -44273,6 +44525,12 @@
       <c r="L20" t="n">
         <v>132.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>128.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -45216,6 +45474,12 @@
       <c r="L20" t="n">
         <v>146.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>146.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>142.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -46420,6 +46684,12 @@
       <c r="L20" t="n">
         <v>190.7</v>
       </c>
+      <c r="M20" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>195.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -47363,6 +47633,12 @@
       <c r="L20" t="n">
         <v>148.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>145.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -48566,6 +48842,12 @@
       <c r="L20" t="n">
         <v>140.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>140.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>133.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -49509,6 +49791,12 @@
       <c r="L20" t="n">
         <v>177.7</v>
       </c>
+      <c r="M20" t="n">
+        <v>177.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>189.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -50712,6 +51000,12 @@
       <c r="L20" t="n">
         <v>139.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>140.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>133.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -51655,6 +51949,12 @@
       <c r="L20" t="n">
         <v>141.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>140.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>136.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -52598,6 +52898,12 @@
       <c r="L20" t="n">
         <v>135.7</v>
       </c>
+      <c r="M20" t="n">
+        <v>135.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>127.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -53541,6 +53847,12 @@
       <c r="L20" t="n">
         <v>146</v>
       </c>
+      <c r="M20" t="n">
+        <v>145.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>143.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -54485,6 +54797,12 @@
       <c r="L20" t="n">
         <v>129.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>130.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>125.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -55428,6 +55746,12 @@
       <c r="L20" t="n">
         <v>135.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>136</v>
+      </c>
+      <c r="N20" t="n">
+        <v>129.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -56631,6 +56955,12 @@
       <c r="L20" t="n">
         <v>123.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>123.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>120.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -57834,6 +58164,12 @@
       <c r="L20" t="n">
         <v>199.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>196.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>204.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -59037,6 +59373,12 @@
       <c r="L20" t="n">
         <v>126.6</v>
       </c>
+      <c r="M20" t="n">
+        <v>127.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>121.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -60240,6 +60582,12 @@
       <c r="L20" t="n">
         <v>121.5</v>
       </c>
+      <c r="M20" t="n">
+        <v>121.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>119.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -61183,6 +61531,12 @@
       <c r="L20" t="n">
         <v>117.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>118</v>
+      </c>
+      <c r="N20" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -62126,6 +62480,12 @@
       <c r="L20" t="n">
         <v>120.7</v>
       </c>
+      <c r="M20" t="n">
+        <v>121.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>119.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -63069,6 +63429,12 @@
       <c r="L20" t="n">
         <v>119.7</v>
       </c>
+      <c r="M20" t="n">
+        <v>120</v>
+      </c>
+      <c r="N20" t="n">
+        <v>116.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -64012,6 +64378,12 @@
       <c r="L20" t="n">
         <v>116.6</v>
       </c>
+      <c r="M20" t="n">
+        <v>116.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>113.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -64951,6 +65323,12 @@
       <c r="L20" t="n">
         <v>117</v>
       </c>
+      <c r="M20" t="n">
+        <v>117.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>114.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -65894,6 +66272,12 @@
       <c r="L20" t="n">
         <v>110.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>110.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>108.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -66837,6 +67221,12 @@
       <c r="L20" t="n">
         <v>134.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>134.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -68040,6 +68430,12 @@
       <c r="L20" t="n">
         <v>152</v>
       </c>
+      <c r="M20" t="n">
+        <v>151.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>150.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -69244,6 +69640,12 @@
       <c r="L20" t="n">
         <v>211.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>210.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>224.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -70187,6 +70589,12 @@
       <c r="L20" t="n">
         <v>141.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -71130,6 +71538,12 @@
       <c r="L20" t="n">
         <v>138.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>135.9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>138.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -72073,6 +72487,12 @@
       <c r="L20" t="n">
         <v>128.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>123.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -73016,6 +73436,12 @@
       <c r="L20" t="n">
         <v>133.6</v>
       </c>
+      <c r="M20" t="n">
+        <v>134</v>
+      </c>
+      <c r="N20" t="n">
+        <v>130.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -74220,6 +74646,12 @@
       <c r="L20" t="n">
         <v>184.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>179</v>
+      </c>
+      <c r="N20" t="n">
+        <v>186.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -75424,6 +75856,12 @@
       <c r="L20" t="n">
         <v>120.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>119.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>117.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
